--- a/_Feedback/Doll13Feedback.xlsx
+++ b/_Feedback/Doll13Feedback.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$F$22</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
   <si>
     <t>ID</t>
   </si>
@@ -96,9 +99,6 @@
     <t>Masken-Aktivierung erklären</t>
   </si>
   <si>
-    <t>Maske besser darstellen</t>
-  </si>
-  <si>
     <t>Mehrere Masken anzeigen / erklären</t>
   </si>
   <si>
@@ -136,13 +136,106 @@
   </si>
   <si>
     <t>Wache schaut hin</t>
+  </si>
+  <si>
+    <t>Schubladen öffnen</t>
+  </si>
+  <si>
+    <t>Outlines hervorheben</t>
+  </si>
+  <si>
+    <t>Saturierung verringern</t>
+  </si>
+  <si>
+    <t>VFX verstärken</t>
+  </si>
+  <si>
+    <t>Sound: "Hmmm… hmmm", Flammen/Trommeln</t>
+  </si>
+  <si>
+    <t>Einblenden des Controller-Buttons, beim drücken Fokus auf Maske</t>
+  </si>
+  <si>
+    <t>Button einblenden</t>
+  </si>
+  <si>
+    <t>Einblenden des Controller-Buttons, beim drücken Fokus auf Guard</t>
+  </si>
+  <si>
+    <t>Outlines bei Blick durch Maske</t>
+  </si>
+  <si>
+    <t>Outlines in anderer Farbe als Objekte</t>
+  </si>
+  <si>
+    <t>"Offenes Buch" beim Fetish</t>
+  </si>
+  <si>
+    <t>Icon im UI</t>
+  </si>
+  <si>
+    <t>Controller-Button einblenden</t>
+  </si>
+  <si>
+    <t>Wache durch die Tür reinkommen lassen</t>
+  </si>
+  <si>
+    <t>Zeichnung in offenem Buch</t>
+  </si>
+  <si>
+    <t>Sichtbarkeit Control Item</t>
+  </si>
+  <si>
+    <t>Outlines hervorheben wenn in Nähe</t>
+  </si>
+  <si>
+    <t>Outlines und VFX bei Blick durch Maske</t>
+  </si>
+  <si>
+    <t>Outlines wenn nicht in Maske dünner</t>
+  </si>
+  <si>
+    <t>Aufnahme Control Item</t>
+  </si>
+  <si>
+    <t>SFX</t>
+  </si>
+  <si>
+    <t>Icon wird eingeblendet</t>
+  </si>
+  <si>
+    <t>Schiebesound abspielen</t>
+  </si>
+  <si>
+    <t>Sound: Schritte</t>
+  </si>
+  <si>
+    <t>Movement Puppe</t>
+  </si>
+  <si>
+    <t>Movement Guard</t>
+  </si>
+  <si>
+    <t>Sprung Puppe</t>
+  </si>
+  <si>
+    <t>SFX für Absprung -&gt; Aufprall -&gt; Ächzen/Aufstehen</t>
+  </si>
+  <si>
+    <t>Steuerung erklären (allgemein)</t>
+  </si>
+  <si>
+    <t>Controls Untermenü</t>
+  </si>
+  <si>
+    <t>Tutorial: Control-Buttons jeweils einblenden</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,16 +243,88 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -167,14 +332,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="20 % - Akzent1" xfId="2" builtinId="30"/>
+    <cellStyle name="20 % - Akzent2" xfId="4" builtinId="34"/>
+    <cellStyle name="20 % - Akzent5" xfId="6" builtinId="46"/>
+    <cellStyle name="20 % - Akzent6" xfId="8" builtinId="50"/>
+    <cellStyle name="Akzent1" xfId="1" builtinId="29"/>
+    <cellStyle name="Akzent2" xfId="3" builtinId="33"/>
+    <cellStyle name="Akzent5" xfId="5" builtinId="45"/>
+    <cellStyle name="Akzent6" xfId="7" builtinId="49"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -474,255 +675,450 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="45.42578125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>2</v>
       </c>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5">
+      <c r="D5" s="6"/>
+      <c r="E5" s="7">
         <v>3</v>
       </c>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="E7" s="7">
+        <v>3</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="9">
+        <v>4</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7">
+      <c r="B18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7">
         <v>3</v>
       </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7">
+        <v>3</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="B22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
+      <c r="B23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
